--- a/ESP32_MASTER_RFID.xlsx
+++ b/ESP32_MASTER_RFID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Arduino\ESP32_Example\ESP32_MASTER_Controller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Arduino\ESP32_Example0901\ESP32_MASTER_Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43F8706-A583-4A37-A31C-CC5CBBA4071D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7513C905-A421-4DAB-BACC-E5C10F51FD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21375" yWindow="270" windowWidth="35595" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="195" windowWidth="35595" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="131">
   <si>
     <t>IO选择</t>
   </si>
@@ -413,6 +413,10 @@
   </si>
   <si>
     <t>回退BACK_Button</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>音量切换</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1268,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1518,7 +1522,9 @@
       <c r="J14" s="24"/>
     </row>
     <row r="15" spans="2:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="17"/>
+      <c r="B15" s="28" t="s">
+        <v>130</v>
+      </c>
       <c r="C15" s="18"/>
       <c r="D15" s="12" t="s">
         <v>43</v>
